--- a/www/histology.xlsx
+++ b/www/histology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Clients/r/reviseR/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF97A68-C778-A648-A105-24A0B5349CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEF5AC5-A9F2-DE43-A956-FA9B10A0CDFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30780" yWindow="2020" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{75AEF49E-9248-134F-BD7C-8C840DEAD4B8}"/>
+    <workbookView xWindow="-31320" yWindow="1580" windowWidth="28040" windowHeight="17440" xr2:uid="{75AEF49E-9248-134F-BD7C-8C840DEAD4B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="60">
   <si>
     <t>Category</t>
   </si>
@@ -95,6 +95,126 @@
   </si>
   <si>
     <t>Water and a semi-permeable membrane</t>
+  </si>
+  <si>
+    <t>True or False</t>
+  </si>
+  <si>
+    <t>The cell is made up of approximately 70% water.</t>
+  </si>
+  <si>
+    <t>The majority of the cell is made up of protoplasm.</t>
+  </si>
+  <si>
+    <t>The outer membrane of an animal cell is known as the cell wall.</t>
+  </si>
+  <si>
+    <t>The neucleolus controls the cell's activities.</t>
+  </si>
+  <si>
+    <t>The mitochondria generate energy for the cell.</t>
+  </si>
+  <si>
+    <t>The ribosomes synthesize protein for the cell.</t>
+  </si>
+  <si>
+    <t>The endoplasmic retuculum is the storage vessel of the cell.</t>
+  </si>
+  <si>
+    <t>Lysosomes contain digestive enzymes.</t>
+  </si>
+  <si>
+    <t>Centrioles play an integral part of in cell division.</t>
+  </si>
+  <si>
+    <t>Meiosis is also known as reduction devision.</t>
+  </si>
+  <si>
+    <t>Meiosis occurs in all body cells.</t>
+  </si>
+  <si>
+    <t>Mitosis has four phases.</t>
+  </si>
+  <si>
+    <t>At the end of prophase, the neucleolus is still present.</t>
+  </si>
+  <si>
+    <t>At metaphase, the chromosomes arrange themselves at opposite ends of the cell.</t>
+  </si>
+  <si>
+    <t>New centromeres are formed at the end of anaphase.</t>
+  </si>
+  <si>
+    <t>Male sperm contain 46 chromosomes.</t>
+  </si>
+  <si>
+    <t>The respiratory tract is lined with cliated columnar epithelium.</t>
+  </si>
+  <si>
+    <t>Squamous epithelium lines the heart, blood and lymph vessels.</t>
+  </si>
+  <si>
+    <t>Stratified epithelium is not keratinized.</t>
+  </si>
+  <si>
+    <t>Areolar tissue is connecting and supporting tissue.</t>
+  </si>
+  <si>
+    <t>Adipose tissue provides protection and insulation.</t>
+  </si>
+  <si>
+    <t>Fat molecules enter the cell by diffusion.</t>
+  </si>
+  <si>
+    <t>Diffusion moves up a gradient scale.</t>
+  </si>
+  <si>
+    <t>Osmosis is the movement of water molecules across a membrane.</t>
+  </si>
+  <si>
+    <t>At prophase, the centrosome divides into two centrioles.</t>
+  </si>
+  <si>
+    <t>At metaphase the nuclear membrane disappears.</t>
+  </si>
+  <si>
+    <t>At telophase, new nuclear membranes form round each set of chromosomes.</t>
+  </si>
+  <si>
+    <t>True.</t>
+  </si>
+  <si>
+    <t>False.</t>
+  </si>
+  <si>
+    <t>The protoplasm is the cytoplasm plus the nucleus.</t>
+  </si>
+  <si>
+    <t>The cell wall is found in plants, the cell membrane in animals.</t>
+  </si>
+  <si>
+    <t>The nucleus controls the cell's activity.  Within the nucleus, the nucleolus is responsible for the production of ribosomes.</t>
+  </si>
+  <si>
+    <t>The edoplasimic reticulum is the transport system of the cell.  The vaculoes are the cell's storage system.</t>
+  </si>
+  <si>
+    <t>The nucleolus disappears during prophase.</t>
+  </si>
+  <si>
+    <t>At anaphase, the chromosomes divide.</t>
+  </si>
+  <si>
+    <t>At anaphase, the chromatids move to opposite ends of the cell.  Query this with Rishi.</t>
+  </si>
+  <si>
+    <t>Query with Risihi: are they in lymph vessels</t>
+  </si>
+  <si>
+    <t>Query with Rishi.  Dry stratified epithelium is keratinised, wet stratified epithelium isn't.</t>
+  </si>
+  <si>
+    <t>Molecules move from regions of high concentration to regions of low concentration.</t>
   </si>
 </sst>
 </file>
@@ -146,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -156,7 +276,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,17 +590,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8A4190-821E-5141-8EE6-FFBFC191691E}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" customWidth="1"/>
+    <col min="4" max="4" width="70.1640625" customWidth="1"/>
     <col min="5" max="5" width="54" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,45 +655,424 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>2003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>2004</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>2005</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>2006</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>2007</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>2008</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>2009</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>2010</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>2011</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>2012</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>2013</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>2014</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>2015</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>2016</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>2017</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>2018</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>2019</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>2020</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>2021</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>2022</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>2023</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>2024</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>2025</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>2026</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>2027</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>2028</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>2029</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>2030</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -585,16 +1083,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DF9C1B-75A2-E34D-B3C5-7E9DE5A0F39E}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="91.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -696,196 +1194,1051 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>2003</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>2003</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>2004</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>2004</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>2005</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>2005</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>2006</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>2006</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>2007</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>2007</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>2008</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>2008</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>2009</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>2009</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>2010</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>2010</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>2011</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>2011</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>2012</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>2012</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>2013</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>2013</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>2014</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>2014</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>2015</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>2015</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>2016</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>2016</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>2017</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>2017</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>2018</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>2018</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>2019</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>2019</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>2020</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>2020</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>2021</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>2021</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="E45" s="5"/>
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>2022</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>2022</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>2023</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>2023</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>2024</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>2024</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>2025</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>2025</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>2026</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>2026</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>2027</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>2027</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>2028</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>2028</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>2029</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>2029</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>2030</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>2030</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1021,6 +2374,12 @@
       <c r="E91" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">
+    <sortCondition ref="A2:A91"/>
+    <sortCondition ref="B2:B91"/>
+    <sortCondition ref="C2:C91"/>
+    <sortCondition ref="D2:D91"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>